--- a/data/trans_dic/P43-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P43-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P43-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P43-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -676,42 +676,42 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,95%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,62%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,65%</t>
         </is>
       </c>
     </row>
@@ -744,42 +744,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>40,43; 58,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>49,52; 67,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>41,5; 58,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>46,1; 64,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>40,43; 58,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>49,52; 67,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>41,5; 58,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>46,1; 64,16</t>
         </is>
       </c>
     </row>
@@ -816,42 +816,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,02%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,88%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,0%</t>
         </is>
       </c>
     </row>
@@ -884,42 +884,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>29,5; 36,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>41,21; 49,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>45,95; 54,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>48,28; 56,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>29,5; 36,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>41,21; 49,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>45,95; 54,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>48,28; 56,15</t>
         </is>
       </c>
     </row>
@@ -956,42 +956,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,27%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,51%</t>
         </is>
       </c>
     </row>
@@ -1024,42 +1024,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>32,26; 38,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>41,91; 48,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>49,53; 55,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>45,25; 51,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>32,26; 38,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>41,91; 48,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>49,53; 55,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>45,25; 51,61</t>
         </is>
       </c>
     </row>
@@ -1096,42 +1096,42 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,89%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,57%</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>35,42; 43,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>44,11; 51,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>40,29; 47,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>53,54; 79,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>35,42; 43,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>44,11; 51,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>40,29; 47,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>53,54; 79,24</t>
         </is>
       </c>
     </row>
@@ -1236,42 +1236,42 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,86%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,91%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,86%</t>
         </is>
       </c>
     </row>
@@ -1304,42 +1304,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>37,75; 44,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>45,41; 51,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>48,85; 55,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>50,95; 58,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>37,75; 44,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>45,41; 51,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>48,85; 55,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>50,95; 58,53</t>
         </is>
       </c>
     </row>
@@ -1376,42 +1376,42 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,4%</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1444,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>36,16; 39,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>45,56; 48,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,24; 51,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>51,72; 60,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>36,16; 39,59</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>45,56; 48,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,24; 51,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>51,72; 60,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P43-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P43-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -676,42 +676,42 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,09%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>58,95%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>50,62%</t>
+          <t>50,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,65%</t>
+          <t>53,13%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>49,09%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>58,95%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>50,62%</t>
+          <t>50,01%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>55,65%</t>
+          <t>53,13%</t>
         </is>
       </c>
     </row>
@@ -744,49 +744,49 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,43; 58,15</t>
+          <t>32,3; 39,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,52; 67,9</t>
+          <t>43,31; 51,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,5; 58,69</t>
+          <t>46,39; 54,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,1; 64,16</t>
+          <t>49,42; 56,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,43; 58,15</t>
+          <t>32,3; 39,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,52; 67,9</t>
+          <t>43,31; 51,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41,5; 58,69</t>
+          <t>46,39; 54,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>46,1; 64,16</t>
+          <t>49,42; 56,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -816,42 +816,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>45,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,88%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>49,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>45,27%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>49,88%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>49,33%</t>
         </is>
       </c>
     </row>
@@ -884,49 +884,49 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,5; 36,91</t>
+          <t>32,26; 38,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,21; 49,34</t>
+          <t>41,91; 48,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,95; 54,18</t>
+          <t>49,53; 55,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,28; 56,15</t>
+          <t>46,11; 52,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,5; 36,91</t>
+          <t>32,26; 38,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>41,21; 49,34</t>
+          <t>41,91; 48,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,95; 54,18</t>
+          <t>49,53; 55,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,28; 56,15</t>
+          <t>46,11; 52,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -956,42 +956,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>45,27%</t>
+          <t>47,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>52,55%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>69,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>45,27%</t>
+          <t>47,89%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>52,55%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>69,25%</t>
         </is>
       </c>
     </row>
@@ -1024,49 +1024,49 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,26; 38,5</t>
+          <t>35,42; 43,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,91; 48,27</t>
+          <t>44,11; 51,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>49,53; 55,67</t>
+          <t>40,29; 47,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>45,25; 51,61</t>
+          <t>54,88; 87,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,26; 38,5</t>
+          <t>35,42; 43,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>41,91; 48,27</t>
+          <t>44,11; 51,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>49,53; 55,67</t>
+          <t>40,29; 47,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,25; 51,61</t>
+          <t>54,88; 87,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1096,42 +1096,42 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>51,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>51,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>51,91%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>51,88%</t>
         </is>
       </c>
     </row>
@@ -1164,49 +1164,49 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,42; 43,14</t>
+          <t>37,75; 44,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,11; 51,29</t>
+          <t>45,41; 51,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,29; 47,66</t>
+          <t>48,85; 55,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,54; 79,24</t>
+          <t>38,8; 57,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,42; 43,14</t>
+          <t>37,75; 44,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,11; 51,29</t>
+          <t>45,41; 51,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>40,29; 47,66</t>
+          <t>48,85; 55,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,54; 79,24</t>
+          <t>38,8; 57,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1236,42 +1236,42 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,08%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>48,29%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>51,91%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>54,86%</t>
+          <t>55,92%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>41,08%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>48,29%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>51,91%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>54,86%</t>
+          <t>55,92%</t>
         </is>
       </c>
     </row>
@@ -1304,194 +1304,54 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,75; 44,38</t>
+          <t>36,16; 39,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,41; 51,39</t>
+          <t>45,56; 48,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,85; 55,39</t>
+          <t>48,24; 51,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,95; 58,53</t>
+          <t>51,1; 65,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,75; 44,38</t>
+          <t>36,16; 39,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,41; 51,39</t>
+          <t>45,56; 48,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>48,85; 55,39</t>
+          <t>48,24; 51,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,95; 58,53</t>
+          <t>51,1; 65,8</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>37,91%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>47,14%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>49,93%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>54,4%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>37,91%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>47,14%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>49,93%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>54,4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>36,16; 39,59</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>45,56; 48,86</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>48,24; 51,71</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>51,72; 60,6</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>36,16; 39,59</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>45,56; 48,86</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>48,24; 51,71</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>51,72; 60,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P43-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P43-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,3; 39,33</t>
+          <t>32,12; 39,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,31; 51,09</t>
+          <t>43,38; 51,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,39; 54,48</t>
+          <t>46,13; 53,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,42; 56,73</t>
+          <t>49,43; 56,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,3; 39,33</t>
+          <t>32,12; 39,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>43,31; 51,09</t>
+          <t>43,38; 51,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46,39; 54,48</t>
+          <t>46,13; 53,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,42; 56,73</t>
+          <t>49,43; 56,61</t>
         </is>
       </c>
     </row>
@@ -884,42 +885,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,26; 38,5</t>
+          <t>32,48; 38,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,91; 48,27</t>
+          <t>41,75; 48,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,53; 55,67</t>
+          <t>49,33; 55,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,11; 52,38</t>
+          <t>46,02; 52,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,26; 38,5</t>
+          <t>32,48; 38,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>41,91; 48,27</t>
+          <t>41,75; 48,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49,53; 55,67</t>
+          <t>49,33; 55,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>46,11; 52,38</t>
+          <t>46,02; 52,4</t>
         </is>
       </c>
     </row>
@@ -1024,42 +1025,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,42; 43,14</t>
+          <t>35,27; 42,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,11; 51,29</t>
+          <t>43,87; 51,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,29; 47,66</t>
+          <t>40,27; 47,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>54,88; 87,18</t>
+          <t>55,02; 86,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>35,42; 43,14</t>
+          <t>35,27; 42,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>44,11; 51,29</t>
+          <t>43,87; 51,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,29; 47,66</t>
+          <t>40,27; 47,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>54,88; 87,18</t>
+          <t>55,02; 86,08</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1165,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,75; 44,38</t>
+          <t>37,58; 43,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,41; 51,39</t>
+          <t>44,96; 51,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,85; 55,39</t>
+          <t>48,89; 55,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,8; 57,57</t>
+          <t>39,65; 57,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,75; 44,38</t>
+          <t>37,58; 43,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,41; 51,39</t>
+          <t>44,96; 51,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48,85; 55,39</t>
+          <t>48,89; 55,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>38,8; 57,57</t>
+          <t>39,65; 57,77</t>
         </is>
       </c>
     </row>
@@ -1304,42 +1305,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,16; 39,59</t>
+          <t>36,19; 39,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,56; 48,86</t>
+          <t>45,44; 48,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,24; 51,71</t>
+          <t>48,16; 51,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>51,1; 65,8</t>
+          <t>51,38; 66,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,16; 39,59</t>
+          <t>36,19; 39,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,56; 48,86</t>
+          <t>45,44; 48,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>48,24; 51,71</t>
+          <t>48,16; 51,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,1; 65,8</t>
+          <t>51,38; 66,52</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado alguna vez una mamografía por prescripción de algún especialista</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>243732</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>328239</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>334215</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>271231</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>243732</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>328239</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>334215</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>271231</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>219435; 268582</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>300684; 357236</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>308290; 360430</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>252322; 288988</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>219435; 268582</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>300684; 357236</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>308290; 360430</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>252322; 288988</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>341470</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>463929</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>543552</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>362303</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>341470</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>463929</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>543552</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>362303</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>313519; 371510</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>427860; 495981</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>510249; 576120</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>337959; 384849</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>313519; 371510</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>427860; 495981</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>510249; 576120</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>337959; 384849</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>264087</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>370652</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>342091</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>505167</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>264087</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>370652</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>342091</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>505167</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>239294; 288365</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>339486; 397702</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>314821; 371821</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>401392; 627973</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>239294; 288365</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>339486; 397702</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>314821; 371821</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>401392; 627973</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>424152</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>504428</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>537442</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>444437</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>424152</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>504428</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>537442</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>444437</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>388097; 454226</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>469710; 538597</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>506169; 573548</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>339638; 494826</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>388097; 454226</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>469710; 538597</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>506169; 573548</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>339638; 494826</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1252</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1523</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1595</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2467</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1252</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1523</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1595</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2467</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1273441</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1667249</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1757300</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1583137</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1273441</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1667249</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1757300</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1583137</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1215683; 1329323</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1606844; 1729955</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1694936; 1816789</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1454515; 1883137</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1215683; 1329323</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1606844; 1729955</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1694936; 1816789</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1454515; 1883137</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>